--- a/matches_4.xlsx
+++ b/matches_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O161"/>
+  <dimension ref="A1:O162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,11 +551,15 @@
       <c r="J2" t="n">
         <v>1866178</v>
       </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -581,7 +585,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 26 2024</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -591,7 +595,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -600,13 +604,17 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1866204</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3</v>
+        <v>1866154</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -632,7 +640,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tuesday, Dec 10 2024</t>
+          <t>Wednesday, Sep 18 2024</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -642,22 +650,26 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1866168</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
+        <v>1866130</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -683,7 +695,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tuesday, Dec 10 2024</t>
+          <t>Thursday, Sep 19 2024</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -693,22 +705,26 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1866193</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
+        <v>1866157</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -734,7 +750,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tuesday, Dec 10 2024</t>
+          <t>Thursday, Sep 19 2024</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -744,22 +760,26 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1866142</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3</v>
+        <v>1866185</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -785,7 +805,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tuesday, Dec 10 2024</t>
+          <t>Thursday, Sep 19 2024</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -795,22 +815,26 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1866107</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
+        <v>1866240</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -836,32 +860,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tuesday, Dec 10 2024</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
+          <t>Thursday, Sep 19 2024</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1866115</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5</v>
+        <v>1866171</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -887,7 +911,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tuesday, Dec 10 2024</t>
+          <t>Wednesday, Oct 02 2024</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -902,17 +926,21 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1866125</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3</v>
+        <v>1866121</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -938,7 +966,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Wednesday, Dec 11 2024</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -948,22 +976,26 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1866164</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
+        <v>1866137</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -989,7 +1021,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Wednesday, Dec 11 2024</t>
+          <t>Tuesday, Oct 22 2024</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -999,22 +1031,26 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1866222</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2</v>
+        <v>1866226</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1040,7 +1076,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wednesday, Dec 11 2024</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1050,22 +1086,26 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1866229</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
+        <v>1866195</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1091,7 +1131,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Wednesday, Dec 11 2024</t>
+          <t>Tuesday, Nov 05 2024</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1101,22 +1141,26 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1866201</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
+        <v>1866181</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1142,7 +1186,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wednesday, Dec 11 2024</t>
+          <t>Tuesday, Nov 05 2024</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1152,22 +1196,26 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1866207</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
+        <v>1866102</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1193,28 +1241,36 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wednesday, Dec 11 2024</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>Tuesday, Nov 05 2024</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1866186</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
+        <v>1866124</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -1240,7 +1296,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Wednesday, Dec 11 2024</t>
+          <t>Tuesday, Nov 05 2024</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1250,22 +1306,26 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1866190</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
+        <v>1866133</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1291,7 +1351,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Wednesday, Dec 11 2024</t>
+          <t>Tuesday, Nov 05 2024</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1301,22 +1361,26 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1866100</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
+        <v>1866143</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1342,7 +1406,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Wednesday, Dec 11 2024</t>
+          <t>Tuesday, Nov 05 2024</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1352,22 +1416,26 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1866128</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3</v>
+        <v>1866148</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1393,7 +1461,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tuesday, Dec 10 2024</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1403,22 +1471,26 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1866215</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
+        <v>1866197</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1444,28 +1516,36 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tuesday, Dec 10 2024</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>Tuesday, Nov 05 2024</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>Dinamo Zagreb</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
       <c r="J20" t="n">
-        <v>1866216</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
+        <v>1866219</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1491,7 +1571,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tuesday, Dec 10 2024</t>
+          <t>Wednesday, Sep 18 2024</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1501,22 +1581,26 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>Paris Saint-Germain</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>Girona</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Liverpool</t>
-        </is>
-      </c>
       <c r="J21" t="n">
-        <v>1866153</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
+        <v>1866169</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -1542,7 +1626,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 27 2024</t>
+          <t>Thursday, Sep 19 2024</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1552,22 +1636,26 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1866225</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
+        <v>1866140</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -1593,7 +1681,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 26 2024</t>
+          <t>Wednesday, Sep 18 2024</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1603,22 +1691,26 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1866174</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>6</v>
+        <v>1866230</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1644,7 +1736,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 26 2024</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1654,22 +1746,26 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1866156</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
+        <v>1866237</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -1695,7 +1791,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 26 2024</t>
+          <t>Wednesday, Oct 02 2024</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1705,22 +1801,26 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1866139</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
+        <v>1866208</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -1746,7 +1846,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 26 2024</t>
+          <t>Wednesday, Oct 02 2024</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1756,22 +1856,26 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1866101</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3</v>
+        <v>1866218</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -1797,7 +1901,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 26 2024</t>
+          <t>Wednesday, Oct 02 2024</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1807,22 +1911,26 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1866112</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
+        <v>1866196</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -1848,7 +1956,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 26 2024</t>
+          <t>Wednesday, Oct 02 2024</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1858,22 +1966,26 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1866105</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
+        <v>1866161</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -1899,7 +2011,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 27 2024</t>
+          <t>Wednesday, Oct 02 2024</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1909,22 +2021,26 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1866239</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
+        <v>1866146</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -1950,7 +2066,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 27 2024</t>
+          <t>Tuesday, Nov 26 2024</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1960,22 +2076,26 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1866141</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
+        <v>1866204</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2001,7 +2121,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 27 2024</t>
+          <t>Wednesday, Oct 02 2024</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2011,22 +2131,26 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1866223</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2</v>
+        <v>1866119</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2052,7 +2176,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tuesday, Sep 17 2024</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2062,22 +2186,26 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1866228</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3</v>
+        <v>1866220</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2103,28 +2231,32 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 27 2024</t>
+          <t>Wednesday, Sep 18 2024</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1866182</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
+        <v>1866200</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -2150,7 +2282,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 27 2024</t>
+          <t>Thursday, Sep 19 2024</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2160,22 +2292,26 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1866183</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3</v>
+        <v>1866122</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2201,32 +2337,32 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 27 2024</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
+          <t>Wednesday, Sep 18 2024</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1866198</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2</v>
+        <v>1866097</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -2252,7 +2388,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 27 2024</t>
+          <t>Tuesday, Sep 17 2024</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2262,22 +2398,26 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1866132</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3</v>
+        <v>1866210</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -2303,7 +2443,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Tuesday, Sep 17 2024</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2313,22 +2453,26 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1866175</v>
-      </c>
-      <c r="K37" t="n">
-        <v>5</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
+        <v>1866116</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -2354,7 +2498,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Tuesday, Sep 17 2024</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2364,22 +2508,26 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1866234</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
+        <v>1866144</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -2405,7 +2553,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Tuesday, Sep 17 2024</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2415,22 +2563,26 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1866232</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3</v>
+        <v>1866149</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2456,7 +2608,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Sep 18 2024</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2466,22 +2618,26 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1866135</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2</v>
+        <v>1866221</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -2507,7 +2663,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2522,17 +2678,21 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1866170</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4</v>
+        <v>1866176</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -2558,7 +2718,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Tuesday, Oct 22 2024</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2568,7 +2728,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2577,13 +2737,17 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1866118</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
+        <v>1866233</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
@@ -2609,7 +2773,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2619,22 +2783,26 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1866099</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
+        <v>1866205</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -2651,45 +2819,55 @@
         <v>10456</v>
       </c>
       <c r="D44" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Feb 19 2025</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1866109</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+        <v>1888121</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2702,45 +2880,55 @@
         <v>10456</v>
       </c>
       <c r="D45" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Tuesday, Feb 18 2025</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1866126</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+        <v>1888114</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2753,16 +2941,16 @@
         <v>10456</v>
       </c>
       <c r="D46" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Feb 12 2025</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2772,22 +2960,26 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1866129</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
+        <v>1888116</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -2804,16 +2996,16 @@
         <v>10456</v>
       </c>
       <c r="D47" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Feb 12 2025</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2823,22 +3015,26 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1866231</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2</v>
+        <v>1888125</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -2855,45 +3051,55 @@
         <v>10456</v>
       </c>
       <c r="D48" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Tuesday, Feb 18 2025</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1866158</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+        <v>1888120</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O48" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2906,45 +3112,55 @@
         <v>10456</v>
       </c>
       <c r="D49" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Tuesday, Feb 18 2025</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1866224</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+        <v>1888112</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O49" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2957,45 +3173,55 @@
         <v>10456</v>
       </c>
       <c r="D50" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Feb 19 2025</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1866191</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+        <v>1888118</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3008,45 +3234,55 @@
         <v>10456</v>
       </c>
       <c r="D51" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Tuesday, Feb 18 2025</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1866177</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+        <v>1888126</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4</v>
+      </c>
+      <c r="O51" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3059,45 +3295,55 @@
         <v>10456</v>
       </c>
       <c r="D52" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Feb 19 2025</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1866206</v>
-      </c>
-      <c r="K52" t="n">
-        <v>6</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+        <v>1888122</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N52" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3119,7 +3365,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Oct 23 2024</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3129,22 +3375,26 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1866211</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
+        <v>1866103</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
@@ -3161,16 +3411,16 @@
         <v>10456</v>
       </c>
       <c r="D54" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Feb 12 2025</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3180,22 +3430,26 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1866202</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
+        <v>1888111</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -3212,16 +3466,16 @@
         <v>10456</v>
       </c>
       <c r="D55" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Feb 12 2025</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3231,22 +3485,26 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1866163</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4</v>
+        <v>1888113</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -3263,16 +3521,16 @@
         <v>10456</v>
       </c>
       <c r="D56" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Tuesday, Feb 11 2025</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3282,22 +3540,26 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1866151</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2</v>
+        <v>1888115</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -3314,16 +3576,16 @@
         <v>10456</v>
       </c>
       <c r="D57" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Tuesday, Feb 11 2025</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3333,22 +3595,26 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1866213</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3</v>
+        <v>1888119</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
@@ -3365,16 +3631,16 @@
         <v>10456</v>
       </c>
       <c r="D58" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 22 2025</t>
+          <t>Tuesday, Feb 11 2025</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3384,22 +3650,26 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1866199</v>
-      </c>
-      <c r="K58" t="n">
-        <v>2</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
+        <v>1888117</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -3416,37 +3686,45 @@
         <v>10456</v>
       </c>
       <c r="D59" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Tuesday, Feb 11 2025</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1866179</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
+        <v>1888123</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -3463,45 +3741,55 @@
         <v>10456</v>
       </c>
       <c r="D60" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Wednesday, Feb 19 2025</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1866134</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+        <v>1888124</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O60" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3523,7 +3811,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Wednesday, Oct 23 2024</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3533,22 +3821,26 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1866136</v>
-      </c>
-      <c r="K61" t="n">
-        <v>4</v>
-      </c>
-      <c r="L61" t="n">
-        <v>5</v>
+        <v>1866110</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -3574,7 +3866,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Wednesday, Oct 23 2024</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3584,22 +3876,26 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Lille</t>
-        </is>
-      </c>
       <c r="J62" t="n">
-        <v>1866150</v>
-      </c>
-      <c r="K62" t="n">
-        <v>2</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
+        <v>1866120</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -3625,7 +3921,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3635,22 +3931,26 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
+          <t>Paris Saint-Germain</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>Atletico Madrid</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
       <c r="J63" t="n">
-        <v>1866155</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
+        <v>1866160</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -3676,7 +3976,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 22 2025</t>
+          <t>Tuesday, Oct 22 2024</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3686,7 +3986,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3695,13 +3995,17 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1866123</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
+        <v>1866212</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
@@ -3727,7 +4031,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 22 2025</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3737,22 +4041,26 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1866203</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
+        <v>1866138</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -3778,7 +4086,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3788,22 +4096,26 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1866147</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3</v>
+        <v>1866106</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -3829,7 +4141,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 22 2025</t>
+          <t>Tuesday, Nov 05 2024</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3839,22 +4151,26 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1866188</v>
-      </c>
-      <c r="K67" t="n">
-        <v>3</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
+        <v>1866235</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -3880,7 +4196,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 22 2025</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3890,22 +4206,26 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1866227</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
+        <v>1866236</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -3931,7 +4251,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 22 2025</t>
+          <t>Tuesday, Nov 05 2024</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3941,22 +4261,26 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1866098</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2</v>
+        <v>1866214</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
@@ -3982,7 +4306,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 22 2025</t>
+          <t>Wednesday, Oct 23 2024</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3992,22 +4316,26 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1866111</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
+        <v>1866159</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -4033,7 +4361,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 22 2025</t>
+          <t>Wednesday, Oct 23 2024</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4043,7 +4371,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4052,13 +4380,17 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1866117</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
+        <v>1866113</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -4084,7 +4416,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 22 2025</t>
+          <t>Tuesday, Oct 22 2024</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4094,22 +4426,26 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1866145</v>
-      </c>
-      <c r="K72" t="n">
-        <v>5</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
+        <v>1866167</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -4135,7 +4471,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 26 2024</t>
+          <t>Wednesday, Oct 23 2024</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4145,22 +4481,26 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1866189</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5</v>
+        <v>1866162</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -4186,7 +4526,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 27 2024</t>
+          <t>Tuesday, Oct 22 2024</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4196,22 +4536,26 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1866194</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1</v>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
+        <v>1866187</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
@@ -4237,7 +4581,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 26 2024</t>
+          <t>Tuesday, Oct 22 2024</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4247,22 +4591,26 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1866165</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>6</v>
+        <v>1866127</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -4298,22 +4646,26 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1866192</v>
-      </c>
-      <c r="K76" t="n">
-        <v>3</v>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
+        <v>1866238</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -4339,7 +4691,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Tuesday, Oct 22 2024</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4349,22 +4701,26 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1866209</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1</v>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
+        <v>1866180</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -4390,32 +4746,32 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
+          <t>Wednesday, Oct 23 2024</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1866166</v>
-      </c>
-      <c r="K78" t="n">
-        <v>2</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
+        <v>1866173</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
@@ -4441,7 +4797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Wednesday, Oct 23 2024</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4451,22 +4807,26 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1866104</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4</v>
+        <v>1866184</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
@@ -4492,7 +4852,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Wednesday, Oct 23 2024</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4502,22 +4862,26 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1866108</v>
-      </c>
-      <c r="K80" t="n">
-        <v>4</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
+        <v>1866217</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
@@ -4543,7 +4907,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Wednesday, Oct 02 2024</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4553,22 +4917,26 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1866131</v>
-      </c>
-      <c r="K81" t="n">
-        <v>7</v>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
+        <v>1866172</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -4594,7 +4962,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Wednesday, Oct 02 2024</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4604,22 +4972,26 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1866114</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
+        <v>1866152</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
@@ -4645,7 +5017,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4655,22 +5027,26 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1866154</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
+        <v>1866114</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
@@ -4696,7 +5072,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 02 2024</t>
+          <t>Wednesday, Jan 29 2025</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4706,22 +5082,26 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1866172</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3</v>
+        <v>1866118</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -4747,7 +5127,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 02 2024</t>
+          <t>Tuesday, Nov 26 2024</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4757,22 +5137,26 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1866208</v>
-      </c>
-      <c r="K85" t="n">
-        <v>2</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3</v>
+        <v>1866156</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
@@ -4798,7 +5182,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 02 2024</t>
+          <t>Tuesday, Nov 26 2024</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4808,22 +5192,26 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1866218</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2</v>
+        <v>1866139</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -4849,7 +5237,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 02 2024</t>
+          <t>Tuesday, Nov 26 2024</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4859,22 +5247,26 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1866196</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
+        <v>1866101</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
@@ -4900,7 +5292,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 02 2024</t>
+          <t>Tuesday, Nov 26 2024</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4910,22 +5302,26 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1866161</v>
-      </c>
-      <c r="K88" t="n">
-        <v>4</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
+        <v>1866112</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
@@ -4951,7 +5347,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 02 2024</t>
+          <t>Tuesday, Nov 26 2024</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4961,22 +5357,26 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1866146</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
+        <v>1866105</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
@@ -5002,7 +5402,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 02 2024</t>
+          <t>Wednesday, Nov 27 2024</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -5012,22 +5412,26 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1866152</v>
-      </c>
-      <c r="K90" t="n">
-        <v>2</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0</v>
+        <v>1866239</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -5053,7 +5457,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 02 2024</t>
+          <t>Wednesday, Nov 27 2024</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5063,22 +5467,26 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1866119</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
+        <v>1866141</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -5104,7 +5512,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Wednesday, Nov 27 2024</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -5114,22 +5522,26 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1866237</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1</v>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
+        <v>1866223</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
@@ -5155,7 +5567,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Tuesday, Sep 17 2024</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -5165,22 +5577,26 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1866220</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>4</v>
+        <v>1866228</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
@@ -5206,32 +5622,32 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Thursday, Sep 19 2024</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
+          <t>Wednesday, Nov 27 2024</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1866122</v>
-      </c>
-      <c r="K94" t="n">
-        <v>2</v>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
+        <v>1866182</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
@@ -5257,28 +5673,36 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Wednesday, Sep 18 2024</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr"/>
+          <t>Wednesday, Nov 27 2024</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1866097</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
+        <v>1866183</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
@@ -5304,7 +5728,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tuesday, Sep 17 2024</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5314,22 +5738,26 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1866210</v>
-      </c>
-      <c r="K96" t="n">
-        <v>2</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
+        <v>1866131</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
@@ -5355,7 +5783,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Tuesday, Sep 17 2024</t>
+          <t>Wednesday, Nov 27 2024</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5365,22 +5793,26 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1866116</v>
-      </c>
-      <c r="K97" t="n">
-        <v>9</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2</v>
+        <v>1866132</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
@@ -5406,7 +5838,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tuesday, Sep 17 2024</t>
+          <t>Tuesday, Jan 21 2025</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -5416,22 +5848,26 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1866144</v>
-      </c>
-      <c r="K98" t="n">
-        <v>3</v>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
+        <v>1866175</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
@@ -5457,7 +5893,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Tuesday, Sep 17 2024</t>
+          <t>Tuesday, Jan 21 2025</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5467,22 +5903,26 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1866149</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3</v>
+        <v>1866234</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
@@ -5508,7 +5948,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Wednesday, Sep 18 2024</t>
+          <t>Tuesday, Jan 21 2025</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5518,22 +5958,26 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1866221</v>
-      </c>
-      <c r="K100" t="n">
-        <v>3</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
+        <v>1866232</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
@@ -5559,28 +6003,36 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Wednesday, Sep 18 2024</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1866200</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0</v>
+        <v>1866135</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
@@ -5606,7 +6058,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Wednesday, Sep 18 2024</t>
+          <t>Tuesday, Nov 26 2024</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5616,22 +6068,26 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1866230</v>
-      </c>
-      <c r="K102" t="n">
-        <v>5</v>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
+        <v>1866174</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
@@ -5657,7 +6113,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Thursday, Sep 19 2024</t>
+          <t>Wednesday, Nov 27 2024</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5667,22 +6123,26 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1866140</v>
-      </c>
-      <c r="K103" t="n">
-        <v>2</v>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
+        <v>1866225</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
@@ -5708,7 +6168,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Wednesday, Sep 18 2024</t>
+          <t>Tuesday, Dec 10 2024</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -5718,22 +6178,26 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1866169</v>
-      </c>
-      <c r="K104" t="n">
-        <v>1</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
+        <v>1866153</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
@@ -5759,7 +6223,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Wednesday, Sep 18 2024</t>
+          <t>Wednesday, Dec 11 2024</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5769,22 +6233,26 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1866130</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>3</v>
+        <v>1866222</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
@@ -5810,7 +6278,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Thursday, Sep 19 2024</t>
+          <t>Tuesday, Dec 10 2024</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5820,22 +6288,26 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1866157</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>4</v>
+        <v>1866168</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
@@ -5861,7 +6333,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Thursday, Sep 19 2024</t>
+          <t>Tuesday, Dec 10 2024</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5871,22 +6343,26 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1866185</v>
-      </c>
-      <c r="K107" t="n">
-        <v>1</v>
-      </c>
-      <c r="L107" t="n">
-        <v>2</v>
+        <v>1866193</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
@@ -5912,7 +6388,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Thursday, Sep 19 2024</t>
+          <t>Tuesday, Dec 10 2024</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5922,22 +6398,26 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1866240</v>
-      </c>
-      <c r="K108" t="n">
-        <v>2</v>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
+        <v>1866142</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
@@ -5963,28 +6443,36 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Thursday, Sep 19 2024</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr"/>
+          <t>Tuesday, Dec 10 2024</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1866171</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0</v>
+        <v>1866107</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
@@ -6010,7 +6498,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 02 2024</t>
+          <t>Tuesday, Dec 10 2024</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -6020,22 +6508,26 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1866121</v>
-      </c>
-      <c r="K110" t="n">
-        <v>2</v>
-      </c>
-      <c r="L110" t="n">
-        <v>3</v>
+        <v>1866115</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
@@ -6061,7 +6553,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Tuesday, Dec 10 2024</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -6071,22 +6563,26 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1866137</v>
-      </c>
-      <c r="K111" t="n">
-        <v>5</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0</v>
+        <v>1866125</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
@@ -6112,7 +6608,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 22 2024</t>
+          <t>Wednesday, Dec 11 2024</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -6122,22 +6618,26 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1866226</v>
-      </c>
-      <c r="K112" t="n">
-        <v>5</v>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
+        <v>1866164</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
@@ -6163,7 +6663,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Wednesday, Dec 11 2024</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -6173,22 +6673,26 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1866195</v>
-      </c>
-      <c r="K113" t="n">
-        <v>1</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0</v>
+        <v>1866229</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
@@ -6214,32 +6718,32 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 05 2024</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
+          <t>Tuesday, Dec 10 2024</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1866181</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1</v>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
+        <v>1866216</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
@@ -6265,7 +6769,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 05 2024</t>
+          <t>Wednesday, Dec 11 2024</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -6275,22 +6779,26 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1866102</v>
-      </c>
-      <c r="K115" t="n">
-        <v>4</v>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
+        <v>1866201</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
@@ -6316,7 +6824,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 05 2024</t>
+          <t>Wednesday, Dec 11 2024</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -6326,22 +6834,26 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1866124</v>
-      </c>
-      <c r="K116" t="n">
-        <v>3</v>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
+        <v>1866207</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
@@ -6367,32 +6879,32 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 05 2024</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
+          <t>Wednesday, Dec 11 2024</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1866133</v>
-      </c>
-      <c r="K117" t="n">
-        <v>1</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0</v>
+        <v>1866186</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
@@ -6418,7 +6930,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 05 2024</t>
+          <t>Wednesday, Dec 11 2024</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -6428,22 +6940,26 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1866143</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1</v>
-      </c>
-      <c r="L118" t="n">
-        <v>3</v>
+        <v>1866190</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
@@ -6469,7 +6985,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 05 2024</t>
+          <t>Wednesday, Dec 11 2024</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -6479,22 +6995,26 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1866148</v>
-      </c>
-      <c r="K119" t="n">
-        <v>4</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0</v>
+        <v>1866100</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
@@ -6520,7 +7040,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Wednesday, Dec 11 2024</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -6530,22 +7050,26 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1866197</v>
-      </c>
-      <c r="K120" t="n">
-        <v>2</v>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
+        <v>1866128</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
@@ -6571,7 +7095,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 05 2024</t>
+          <t>Tuesday, Dec 10 2024</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -6581,22 +7105,26 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1866219</v>
-      </c>
-      <c r="K121" t="n">
-        <v>1</v>
-      </c>
-      <c r="L121" t="n">
-        <v>4</v>
+        <v>1866215</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
@@ -6622,7 +7150,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Wednesday, Jan 29 2025</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6637,17 +7165,21 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1866176</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>2</v>
+        <v>1866170</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
@@ -6673,7 +7205,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 22 2024</t>
+          <t>Wednesday, Nov 27 2024</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -6683,22 +7215,26 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1866233</v>
-      </c>
-      <c r="K123" t="n">
-        <v>2</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0</v>
+        <v>1866198</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
@@ -6724,7 +7260,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Wednesday, Jan 29 2025</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6734,22 +7270,26 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1866205</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1</v>
-      </c>
-      <c r="L124" t="n">
-        <v>3</v>
+        <v>1866099</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
@@ -6775,7 +7315,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Wednesday, Jan 22 2025</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -6785,22 +7325,26 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1866160</v>
-      </c>
-      <c r="K125" t="n">
-        <v>1</v>
-      </c>
-      <c r="L125" t="n">
-        <v>2</v>
+        <v>1866145</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
@@ -6826,7 +7370,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Wednesday, Jan 22 2025</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -6836,22 +7380,26 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1866138</v>
-      </c>
-      <c r="K126" t="n">
-        <v>2</v>
-      </c>
-      <c r="L126" t="n">
-        <v>5</v>
+        <v>1866203</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
@@ -6877,7 +7425,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Wednesday, Jan 29 2025</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6887,22 +7435,26 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1866106</v>
-      </c>
-      <c r="K127" t="n">
-        <v>1</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0</v>
+        <v>1866147</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
@@ -6928,7 +7480,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 05 2024</t>
+          <t>Wednesday, Jan 22 2025</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -6938,22 +7490,26 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1866235</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
+        <v>1866188</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
@@ -6979,7 +7535,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Wednesday, Jan 22 2025</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6989,22 +7545,26 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1866236</v>
-      </c>
-      <c r="K129" t="n">
-        <v>1</v>
-      </c>
-      <c r="L129" t="n">
-        <v>2</v>
+        <v>1866227</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
@@ -7030,7 +7590,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 05 2024</t>
+          <t>Wednesday, Jan 22 2025</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -7040,22 +7600,26 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1866214</v>
-      </c>
-      <c r="K130" t="n">
-        <v>4</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0</v>
+        <v>1866098</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
@@ -7081,7 +7645,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 23 2024</t>
+          <t>Wednesday, Jan 29 2025</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -7091,22 +7655,26 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1866159</v>
-      </c>
-      <c r="K131" t="n">
-        <v>1</v>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
+        <v>1866109</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
@@ -7132,7 +7700,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 23 2024</t>
+          <t>Wednesday, Jan 22 2025</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -7142,7 +7710,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7151,13 +7719,17 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1866113</v>
-      </c>
-      <c r="K132" t="n">
-        <v>4</v>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
+        <v>1866117</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
@@ -7183,7 +7755,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 22 2024</t>
+          <t>Tuesday, Nov 26 2024</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -7193,22 +7765,26 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1866212</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>2</v>
+        <v>1866189</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
@@ -7234,7 +7810,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 22 2024</t>
+          <t>Tuesday, Jan 21 2025</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -7244,22 +7820,26 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1866167</v>
-      </c>
-      <c r="K134" t="n">
-        <v>1</v>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
+        <v>1866155</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
@@ -7285,7 +7865,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 22 2024</t>
+          <t>Wednesday, Nov 27 2024</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -7295,22 +7875,26 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1866187</v>
-      </c>
-      <c r="K135" t="n">
-        <v>1</v>
-      </c>
-      <c r="L135" t="n">
-        <v>0</v>
+        <v>1866194</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
@@ -7336,7 +7920,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 22 2024</t>
+          <t>Tuesday, Nov 26 2024</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -7346,22 +7930,26 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1866127</v>
-      </c>
-      <c r="K136" t="n">
-        <v>5</v>
-      </c>
-      <c r="L136" t="n">
-        <v>2</v>
+        <v>1866165</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
@@ -7397,22 +7985,26 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1866238</v>
-      </c>
-      <c r="K137" t="n">
-        <v>2</v>
-      </c>
-      <c r="L137" t="n">
-        <v>0</v>
+        <v>1866192</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
@@ -7438,7 +8030,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 22 2024</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -7448,22 +8040,26 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1866180</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
+        <v>1866209</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
@@ -7489,28 +8085,36 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 23 2024</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr"/>
+          <t>Tuesday, Oct 01 2024</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1866173</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0</v>
+        <v>1866166</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
@@ -7536,7 +8140,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 23 2024</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -7546,22 +8150,26 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1866184</v>
-      </c>
-      <c r="K140" t="n">
-        <v>1</v>
-      </c>
-      <c r="L140" t="n">
-        <v>3</v>
+        <v>1866104</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
@@ -7587,7 +8195,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 23 2024</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -7597,22 +8205,26 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1866217</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>2</v>
+        <v>1866108</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
@@ -7638,7 +8250,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 23 2024</t>
+          <t>Wednesday, Jan 22 2025</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -7648,22 +8260,26 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>1866162</v>
-      </c>
-      <c r="K142" t="n">
-        <v>1</v>
-      </c>
-      <c r="L142" t="n">
-        <v>3</v>
+        <v>1866123</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
@@ -7689,7 +8305,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 23 2024</t>
+          <t>Wednesday, Jan 22 2025</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7699,22 +8315,26 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1866120</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
+        <v>1866111</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
@@ -7740,7 +8360,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 23 2024</t>
+          <t>Tuesday, Jan 21 2025</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -7750,22 +8370,26 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1866103</v>
-      </c>
-      <c r="K144" t="n">
-        <v>5</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0</v>
+        <v>1866150</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
@@ -7791,7 +8415,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 23 2024</t>
+          <t>Wednesday, Jan 29 2025</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7801,1256 +8425,981 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>1866110</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
+        <v>1866206</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" t="n">
+        <v>250</v>
+      </c>
+      <c r="B146" t="n">
+        <v>12</v>
+      </c>
+      <c r="C146" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D146" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Tuesday, Jan 21 2025</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>1866136</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>250</v>
+      </c>
+      <c r="B147" t="n">
+        <v>12</v>
+      </c>
+      <c r="C147" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D147" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Shakhtar Donetsk</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>1866129</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>250</v>
+      </c>
+      <c r="B148" t="n">
+        <v>12</v>
+      </c>
+      <c r="C148" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D148" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>1866231</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>250</v>
+      </c>
+      <c r="B149" t="n">
+        <v>12</v>
+      </c>
+      <c r="C149" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D149" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Sparta Prague</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>1866158</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>250</v>
+      </c>
+      <c r="B150" t="n">
+        <v>12</v>
+      </c>
+      <c r="C150" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D150" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>BSC Young Boys</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>FK Crvena Zvezda</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>1866224</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>250</v>
+      </c>
+      <c r="B151" t="n">
+        <v>12</v>
+      </c>
+      <c r="C151" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D151" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>1866191</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>250</v>
+      </c>
+      <c r="B152" t="n">
+        <v>12</v>
+      </c>
+      <c r="C152" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D152" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>1866177</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>250</v>
+      </c>
+      <c r="B153" t="n">
+        <v>12</v>
+      </c>
+      <c r="C153" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D153" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>1866126</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>250</v>
+      </c>
+      <c r="B154" t="n">
+        <v>12</v>
+      </c>
+      <c r="C154" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D154" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>1866211</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>250</v>
+      </c>
+      <c r="B155" t="n">
+        <v>12</v>
+      </c>
+      <c r="C155" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D155" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>1866163</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>250</v>
+      </c>
+      <c r="B156" t="n">
+        <v>12</v>
+      </c>
+      <c r="C156" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D156" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>1866151</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>250</v>
+      </c>
+      <c r="B157" t="n">
+        <v>12</v>
+      </c>
+      <c r="C157" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D157" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Tuesday, Jan 21 2025</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>FK Crvena Zvezda</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>1866213</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>250</v>
+      </c>
+      <c r="B158" t="n">
+        <v>12</v>
+      </c>
+      <c r="C158" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D158" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Wednesday, Jan 22 2025</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Shakhtar Donetsk</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>1866199</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>250</v>
+      </c>
+      <c r="B159" t="n">
+        <v>12</v>
+      </c>
+      <c r="C159" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D159" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Tuesday, Jan 21 2025</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Club Bruges</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>1866179</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>250</v>
+      </c>
+      <c r="B160" t="n">
+        <v>12</v>
+      </c>
+      <c r="C160" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D160" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Tuesday, Jan 21 2025</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>1866134</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>250</v>
+      </c>
+      <c r="B161" t="n">
+        <v>12</v>
+      </c>
+      <c r="C161" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D161" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>1866202</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>250</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>10456</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>24083</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>Tuesday, Feb 18 2025</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Bayern Munich</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>1888114</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Wednesday, Feb 12 2025</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
         <is>
           <t>Feyenoord</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>1888116</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="N147" t="inlineStr">
+      <c r="K162" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O147" t="inlineStr">
+      <c r="L162" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Wednesday, Feb 12 2025</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Monaco</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>1888125</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
+      <c r="M162" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="N148" t="inlineStr">
+      <c r="N162" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O148" t="inlineStr">
+      <c r="O162" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Tuesday, Feb 18 2025</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>17:45</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>Feyenoord</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>1888120</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Tuesday, Feb 18 2025</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>Club Bruges</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>1888112</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Wednesday, Feb 19 2025</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>17:45</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Borussia Dortmund</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>Sporting CP</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>1888118</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Tuesday, Feb 18 2025</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>Monaco</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>1888126</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Wednesday, Feb 19 2025</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>PSV Eindhoven</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>1888121</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Wednesday, Feb 19 2025</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Real Madrid</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>Manchester City</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>1888122</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Wednesday, Feb 12 2025</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Club Bruges</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>1888111</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Wednesday, Feb 12 2025</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>Bayern Munich</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>1888113</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O156" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Tuesday, Feb 11 2025</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Sporting CP</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>Borussia Dortmund</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>1888115</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Tuesday, Feb 11 2025</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Manchester City</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>Real Madrid</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>1888119</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Tuesday, Feb 11 2025</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>PSV Eindhoven</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>1888117</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Tuesday, Feb 11 2025</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Brest</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>Paris Saint-Germain</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>1888123</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O160" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>10456</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>24083</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>europe-champions-league-2024-2025</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Wednesday, Feb 19 2025</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>Paris Saint-Germain</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>Brest</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>1888124</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>13.00</t>
         </is>
       </c>
     </row>

--- a/matches_4.xlsx
+++ b/matches_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O162"/>
+  <dimension ref="A1:O188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,7 +585,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Tuesday, Oct 22 2024</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -595,25 +595,25 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1866154</v>
+        <v>1866226</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -640,7 +640,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wednesday, Sep 18 2024</t>
+          <t>Thursday, Sep 19 2024</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -650,16 +650,16 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1866130</v>
+        <v>1866157</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -705,25 +705,25 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1866157</v>
+        <v>1866185</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
@@ -760,25 +760,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1866185</v>
+        <v>1866240</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
@@ -808,32 +808,28 @@
           <t>Thursday, Sep 19 2024</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1866240</v>
+        <v>1866171</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
@@ -860,31 +856,35 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Thursday, Sep 19 2024</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>Wednesday, Oct 02 2024</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1866171</v>
+        <v>1866121</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
@@ -911,7 +911,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 02 2024</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -921,25 +921,25 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1866121</v>
+        <v>1866137</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -976,20 +976,20 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1866137</v>
+        <v>1866195</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 22 2024</t>
+          <t>Tuesday, Nov 05 2024</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1031,25 +1031,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1866226</v>
+        <v>1866219</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Tuesday, Nov 05 2024</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1086,16 +1086,16 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1866195</v>
+        <v>1866181</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -1141,20 +1141,20 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1866181</v>
+        <v>1866102</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1196,20 +1196,20 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1866102</v>
+        <v>1866124</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1251,25 +1251,25 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1866124</v>
+        <v>1866133</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
@@ -1306,16 +1306,16 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1866133</v>
+        <v>1866143</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
@@ -1361,25 +1361,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1866143</v>
+        <v>1866148</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 05 2024</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1416,25 +1416,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1866148</v>
+        <v>1866197</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
@@ -1471,25 +1471,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1866197</v>
+        <v>1866176</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 05 2024</t>
+          <t>Wednesday, Oct 02 2024</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1526,25 +1526,25 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1866219</v>
+        <v>1866196</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -1581,25 +1581,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1866169</v>
+        <v>1866130</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Thursday, Sep 19 2024</t>
+          <t>Wednesday, Sep 18 2024</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1636,25 +1636,25 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1866140</v>
+        <v>1866169</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Wednesday, Sep 18 2024</t>
+          <t>Tuesday, Oct 22 2024</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1700,16 +1700,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1866230</v>
+        <v>1866233</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Thursday, Sep 19 2024</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1746,20 +1746,20 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1866237</v>
+        <v>1866140</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1911,16 +1911,16 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1866196</v>
+        <v>1866172</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tuesday, Sep 17 2024</t>
+          <t>Wednesday, Nov 27 2024</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2508,16 +2508,16 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1866144</v>
+        <v>1866198</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Wednesday, Sep 18 2024</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2673,25 +2673,25 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1866176</v>
+        <v>1866230</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M41" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 22 2024</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2728,25 +2728,25 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1866233</v>
+        <v>1866205</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Tuesday, Oct 22 2024</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2783,16 +2783,16 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1866205</v>
+        <v>1866167</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
@@ -2819,55 +2819,49 @@
         <v>10456</v>
       </c>
       <c r="D44" t="n">
-        <v>24083</v>
+        <v>23663</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>europe-champions-league-2024-2025</t>
+          <t>Europe-Champions-League-2024-2025</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Wednesday, Feb 19 2025</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1888121</v>
+        <v>1866138</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O44" t="n">
-        <v>2.9</v>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2880,55 +2874,49 @@
         <v>10456</v>
       </c>
       <c r="D45" t="n">
-        <v>24083</v>
+        <v>23663</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>europe-champions-league-2024-2025</t>
+          <t>Europe-Champions-League-2024-2025</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tuesday, Feb 18 2025</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1888114</v>
+        <v>1866106</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O45" t="n">
-        <v>15</v>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2960,25 +2948,25 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1888116</v>
+        <v>1888125</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
@@ -3005,40 +2993,46 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Wednesday, Feb 12 2025</t>
+          <t>Tuesday, Feb 18 2025</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1888125</v>
+        <v>1888120</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O47" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3065,21 +3059,21 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1888120</v>
+        <v>1888112</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3092,13 +3086,13 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="N48" t="n">
         <v>4.5</v>
       </c>
       <c r="O48" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="49">
@@ -3121,26 +3115,26 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tuesday, Feb 18 2025</t>
+          <t>Wednesday, Feb 19 2025</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1888112</v>
+        <v>1888118</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3153,13 +3147,13 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="N49" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O49" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="50">
@@ -3182,26 +3176,26 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wednesday, Feb 19 2025</t>
+          <t>Tuesday, Feb 18 2025</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1888118</v>
+        <v>1888126</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3214,13 +3208,13 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="N50" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O50" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -3243,46 +3237,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tuesday, Feb 18 2025</t>
+          <t>Wednesday, Feb 12 2025</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1888126</v>
+        <v>1888116</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="N51" t="n">
-        <v>4</v>
-      </c>
-      <c r="O51" t="n">
-        <v>4</v>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3295,55 +3283,49 @@
         <v>10456</v>
       </c>
       <c r="D52" t="n">
-        <v>24083</v>
+        <v>23663</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>europe-champions-league-2024-2025</t>
+          <t>Europe-Champions-League-2024-2025</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wednesday, Feb 19 2025</t>
+          <t>Wednesday, Oct 23 2024</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1888122</v>
+        <v>1866103</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="N52" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="O52" t="n">
-        <v>4</v>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3356,49 +3338,55 @@
         <v>10456</v>
       </c>
       <c r="D53" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 23 2024</t>
+          <t>Wednesday, Feb 19 2025</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1866103</v>
+        <v>1888124</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O53" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3430,25 +3418,25 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1888111</v>
+        <v>1888113</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
@@ -3475,7 +3463,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Wednesday, Feb 12 2025</t>
+          <t>Tuesday, Feb 11 2025</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3485,25 +3473,25 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1888113</v>
+        <v>1888115</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
@@ -3540,20 +3528,20 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1888115</v>
+        <v>1888119</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3595,16 +3583,16 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1888119</v>
+        <v>1888117</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3613,7 +3601,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
@@ -3650,25 +3638,25 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1888117</v>
+        <v>1888123</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
@@ -3695,7 +3683,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tuesday, Feb 11 2025</t>
+          <t>Wednesday, Feb 12 2025</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3705,25 +3693,25 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1888123</v>
+        <v>1888111</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -3750,7 +3738,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Wednesday, Feb 19 2025</t>
+          <t>Tuesday, Mar 04 2025</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3760,16 +3748,16 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1888124</v>
+        <v>1891163</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3782,13 +3770,13 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1.18</v>
+        <v>1.85</v>
       </c>
       <c r="N60" t="n">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="O60" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -3802,44 +3790,44 @@
         <v>10456</v>
       </c>
       <c r="D61" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 23 2024</t>
+          <t>Tuesday, Mar 11 2025</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1866110</v>
+        <v>1891178</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
@@ -3857,49 +3845,55 @@
         <v>10456</v>
       </c>
       <c r="D62" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 23 2024</t>
+          <t>Tuesday, Feb 18 2025</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1866120</v>
+        <v>1888114</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O62" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3921,7 +3915,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Wednesday, Oct 23 2024</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3931,25 +3925,25 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1866160</v>
+        <v>1866110</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -3967,49 +3961,55 @@
         <v>10456</v>
       </c>
       <c r="D64" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 22 2024</t>
+          <t>Wednesday, Feb 19 2025</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1866212</v>
+        <v>1888122</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N64" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O64" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Tuesday, Oct 22 2024</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4041,25 +4041,25 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1866138</v>
+        <v>1866187</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Tuesday, Nov 05 2024</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4096,25 +4096,25 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1866106</v>
+        <v>1866235</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="M66" t="inlineStr"/>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 05 2024</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4151,25 +4151,25 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1866235</v>
+        <v>1866236</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Tuesday, Nov 05 2024</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4206,25 +4206,25 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1866236</v>
+        <v>1866214</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 05 2024</t>
+          <t>Wednesday, Oct 23 2024</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4261,25 +4261,25 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1866214</v>
+        <v>1866159</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -4316,20 +4316,20 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1866159</v>
+        <v>1866113</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4371,25 +4371,25 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1866113</v>
+        <v>1866162</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 22 2024</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4431,11 +4431,11 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1866167</v>
+        <v>1866160</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 23 2024</t>
+          <t>Tuesday, Oct 22 2024</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4481,25 +4481,25 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1866162</v>
+        <v>1866127</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 22 2024</t>
+          <t>Wednesday, Oct 23 2024</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4536,25 +4536,25 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1866187</v>
+        <v>1866120</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -4591,25 +4591,25 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1866127</v>
+        <v>1866238</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -4646,25 +4646,25 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1866238</v>
+        <v>1866180</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
@@ -4682,49 +4682,55 @@
         <v>10456</v>
       </c>
       <c r="D77" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 22 2024</t>
+          <t>Wednesday, Feb 19 2025</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
           <t>Juventus</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>VfB Stuttgart</t>
-        </is>
-      </c>
       <c r="J77" t="n">
-        <v>1866180</v>
+        <v>1888121</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4749,28 +4755,32 @@
           <t>Wednesday, Oct 23 2024</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1866173</v>
+        <v>1866184</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
@@ -4807,25 +4817,25 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1866184</v>
+        <v>1866217</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
@@ -4852,7 +4862,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 23 2024</t>
+          <t>Tuesday, Oct 22 2024</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4862,16 +4872,16 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1866217</v>
+        <v>1866212</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -4907,26 +4917,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 02 2024</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
+          <t>Wednesday, Oct 23 2024</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1866172</v>
+        <v>1866173</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -4935,7 +4941,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M81" t="inlineStr"/>
@@ -4962,7 +4968,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Wednesday, Oct 02 2024</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4972,25 +4978,25 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1866152</v>
+        <v>1866237</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
@@ -5017,7 +5023,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 06 2024</t>
+          <t>Tuesday, Sep 17 2024</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5027,25 +5033,25 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1866114</v>
+        <v>1866144</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -5072,7 +5078,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Oct 02 2024</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5082,25 +5088,25 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1866118</v>
+        <v>1866152</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
@@ -5137,25 +5143,25 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1866156</v>
+        <v>1866174</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
@@ -5192,20 +5198,20 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1866139</v>
+        <v>1866156</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5247,16 +5253,16 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1866101</v>
+        <v>1866139</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -5265,7 +5271,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
@@ -5302,25 +5308,25 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1866112</v>
+        <v>1866101</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M88" t="inlineStr"/>
@@ -5347,7 +5353,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 26 2024</t>
+          <t>Tuesday, Jan 21 2025</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5357,20 +5363,20 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1866105</v>
+        <v>1866175</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5402,7 +5408,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 27 2024</t>
+          <t>Tuesday, Nov 26 2024</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -5412,16 +5418,16 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1866239</v>
+        <v>1866105</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -5467,20 +5473,20 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1866141</v>
+        <v>1866239</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5522,25 +5528,25 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1866223</v>
+        <v>1866141</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
@@ -5622,31 +5628,35 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 27 2024</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr"/>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1866182</v>
+        <v>1866135</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -5676,32 +5686,28 @@
           <t>Wednesday, Nov 27 2024</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1866183</v>
+        <v>1866182</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M95" t="inlineStr"/>
@@ -5728,7 +5734,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Wednesday, Nov 27 2024</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5738,25 +5744,25 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1866131</v>
+        <v>1866183</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
@@ -5783,7 +5789,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 27 2024</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5793,25 +5799,25 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1866132</v>
+        <v>1866131</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -5838,7 +5844,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Wednesday, Nov 27 2024</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -5848,25 +5854,25 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1866175</v>
+        <v>1866132</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M98" t="inlineStr"/>
@@ -5893,7 +5899,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5903,16 +5909,16 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1866234</v>
+        <v>1866154</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -5958,16 +5964,16 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1866232</v>
+        <v>1866234</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -5976,7 +5982,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
@@ -6003,7 +6009,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Tuesday, Jan 21 2025</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6013,25 +6019,25 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1866135</v>
+        <v>1866232</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M101" t="inlineStr"/>
@@ -6058,7 +6064,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 26 2024</t>
+          <t>Wednesday, Jan 29 2025</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6068,16 +6074,16 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1866174</v>
+        <v>1866170</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -6086,7 +6092,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M102" t="inlineStr"/>
@@ -6123,25 +6129,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1866225</v>
+        <v>1866223</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M103" t="inlineStr"/>
@@ -6168,7 +6174,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Tuesday, Dec 10 2024</t>
+          <t>Wednesday, Nov 27 2024</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -6178,20 +6184,20 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1866153</v>
+        <v>1866225</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -6223,7 +6229,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Wednesday, Dec 11 2024</t>
+          <t>Wednesday, Nov 06 2024</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6233,25 +6239,25 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1866222</v>
+        <v>1866114</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M105" t="inlineStr"/>
@@ -6288,16 +6294,16 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1866168</v>
+        <v>1866153</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -6306,7 +6312,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M106" t="inlineStr"/>
@@ -6333,7 +6339,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tuesday, Dec 10 2024</t>
+          <t>Wednesday, Dec 11 2024</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -6343,25 +6349,25 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1866193</v>
+        <v>1866222</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="M107" t="inlineStr"/>
@@ -6398,20 +6404,20 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1866142</v>
+        <v>1866168</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -6453,25 +6459,25 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1866107</v>
+        <v>1866193</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="M109" t="inlineStr"/>
@@ -6508,25 +6514,25 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1866115</v>
+        <v>1866142</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M110" t="inlineStr"/>
@@ -6563,25 +6569,25 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1866125</v>
+        <v>1866107</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M111" t="inlineStr"/>
@@ -6608,7 +6614,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Wednesday, Dec 11 2024</t>
+          <t>Tuesday, Dec 10 2024</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -6618,25 +6624,25 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1866164</v>
+        <v>1866115</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M112" t="inlineStr"/>
@@ -6663,7 +6669,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Wednesday, Dec 11 2024</t>
+          <t>Tuesday, Dec 10 2024</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -6673,25 +6679,25 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1866229</v>
+        <v>1866125</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
@@ -6718,31 +6724,35 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Tuesday, Dec 10 2024</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr"/>
+          <t>Wednesday, Dec 11 2024</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1866216</v>
+        <v>1866164</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M114" t="inlineStr"/>
@@ -6779,20 +6789,20 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1866201</v>
+        <v>1866229</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -6824,35 +6834,31 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Wednesday, Dec 11 2024</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
+          <t>Tuesday, Dec 10 2024</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1866207</v>
+        <v>1866216</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -6882,28 +6888,32 @@
           <t>Wednesday, Dec 11 2024</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1866186</v>
+        <v>1866201</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -6940,25 +6950,25 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1866190</v>
+        <v>1866207</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
@@ -6988,27 +6998,23 @@
           <t>Wednesday, Dec 11 2024</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1866100</v>
+        <v>1866186</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -7050,25 +7056,25 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1866128</v>
+        <v>1866190</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -7095,7 +7101,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Tuesday, Dec 10 2024</t>
+          <t>Wednesday, Dec 11 2024</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -7105,20 +7111,20 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1866215</v>
+        <v>1866100</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -7150,7 +7156,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Dec 11 2024</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -7160,25 +7166,25 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1866170</v>
+        <v>1866128</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M122" t="inlineStr"/>
@@ -7205,7 +7211,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 27 2024</t>
+          <t>Tuesday, Dec 10 2024</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -7215,25 +7221,25 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
           <t>PSV Eindhoven</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>Shakhtar Donetsk</t>
-        </is>
-      </c>
       <c r="J123" t="n">
-        <v>1866198</v>
+        <v>1866215</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -7315,7 +7321,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 22 2025</t>
+          <t>Tuesday, Nov 26 2024</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -7325,25 +7331,25 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1866145</v>
+        <v>1866112</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -7380,25 +7386,25 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1866203</v>
+        <v>1866145</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="M126" t="inlineStr"/>
@@ -7425,7 +7431,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Jan 22 2025</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -7435,16 +7441,16 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1866147</v>
+        <v>1866111</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -7453,7 +7459,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
@@ -7490,20 +7496,20 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1866188</v>
+        <v>1866203</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -7535,7 +7541,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 22 2025</t>
+          <t>Wednesday, Jan 29 2025</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -7545,25 +7551,25 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1866227</v>
+        <v>1866147</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M129" t="inlineStr"/>
@@ -7600,25 +7606,25 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1866098</v>
+        <v>1866188</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M130" t="inlineStr"/>
@@ -7645,7 +7651,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Wednesday, Jan 22 2025</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -7655,20 +7661,20 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1866109</v>
+        <v>1866227</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -7710,25 +7716,25 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1866117</v>
+        <v>1866098</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M132" t="inlineStr"/>
@@ -7755,7 +7761,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 26 2024</t>
+          <t>Wednesday, Jan 29 2025</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -7765,25 +7771,25 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1866189</v>
+        <v>1866109</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M133" t="inlineStr"/>
@@ -7810,7 +7816,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Wednesday, Jan 22 2025</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -7820,25 +7826,25 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1866155</v>
+        <v>1866117</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M134" t="inlineStr"/>
@@ -7865,7 +7871,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Wednesday, Nov 27 2024</t>
+          <t>Tuesday, Jan 21 2025</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -7875,20 +7881,20 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1866194</v>
+        <v>1866155</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -7920,7 +7926,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Tuesday, Nov 26 2024</t>
+          <t>Wednesday, Jan 22 2025</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -7930,25 +7936,25 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1866165</v>
+        <v>1866123</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
@@ -7975,7 +7981,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 22 2024</t>
+          <t>Wednesday, Nov 27 2024</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -7985,7 +7991,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7994,11 +8000,11 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1866192</v>
+        <v>1866194</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -8030,7 +8036,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Tuesday, Nov 26 2024</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -8040,25 +8046,25 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1866209</v>
+        <v>1866165</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
@@ -8085,7 +8091,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Tuesday, Oct 22 2024</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -8095,25 +8101,25 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1866166</v>
+        <v>1866192</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M139" t="inlineStr"/>
@@ -8150,25 +8156,25 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1866104</v>
+        <v>1866209</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
@@ -8195,7 +8201,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Tuesday, Oct 01 2024</t>
+          <t>Tuesday, Jan 21 2025</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -8205,16 +8211,16 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1866108</v>
+        <v>1866136</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -8223,7 +8229,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
@@ -8250,7 +8256,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 22 2025</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -8260,25 +8266,25 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>1866123</v>
+        <v>1866104</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
@@ -8305,7 +8311,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 22 2025</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -8315,25 +8321,25 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1866111</v>
+        <v>1866108</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="M143" t="inlineStr"/>
@@ -8360,7 +8366,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Wednesday, Jan 29 2025</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -8370,20 +8376,20 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1866150</v>
+        <v>1866118</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -8415,7 +8421,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Tuesday, Nov 26 2024</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -8425,25 +8431,25 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>1866206</v>
+        <v>1866189</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
@@ -8470,7 +8476,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Tuesday, Oct 01 2024</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -8480,25 +8486,25 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1866136</v>
+        <v>1866166</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
@@ -8525,7 +8531,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
+          <t>Tuesday, Jan 21 2025</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -8535,20 +8541,20 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1866129</v>
+        <v>1866150</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -8590,25 +8596,25 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>1866231</v>
+        <v>1866211</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M148" t="inlineStr"/>
@@ -8645,25 +8651,25 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1866158</v>
+        <v>1866206</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
@@ -8700,20 +8706,20 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1866224</v>
+        <v>1866129</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -8755,25 +8761,25 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1866191</v>
+        <v>1866158</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M151" t="inlineStr"/>
@@ -8810,16 +8816,16 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1866177</v>
+        <v>1866224</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -8828,7 +8834,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
@@ -8865,16 +8871,16 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1866126</v>
+        <v>1866191</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -8883,7 +8889,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M153" t="inlineStr"/>
@@ -8920,25 +8926,25 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1866211</v>
+        <v>1866177</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
@@ -8975,16 +8981,16 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1866163</v>
+        <v>1866126</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -8993,7 +8999,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
@@ -9030,20 +9036,20 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>1866151</v>
+        <v>1866231</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -9075,7 +9081,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Wednesday, Jan 29 2025</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -9085,25 +9091,25 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1866213</v>
+        <v>1866163</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M157" t="inlineStr"/>
@@ -9121,16 +9127,16 @@
         <v>10456</v>
       </c>
       <c r="D158" t="n">
-        <v>23663</v>
+        <v>24083</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Europe-Champions-League-2024-2025</t>
+          <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 22 2025</t>
+          <t>Tuesday, Feb 18 2025</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -9140,27 +9146,17 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Brest</t>
-        </is>
-      </c>
-      <c r="J158" t="n">
-        <v>1866199</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
@@ -9188,28 +9184,32 @@
           <t>Tuesday, Jan 21 2025</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Club Bruges</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>1866179</v>
+        <v>1866213</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M159" t="inlineStr"/>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Tuesday, Jan 21 2025</t>
+          <t>Wednesday, Jan 22 2025</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -9246,16 +9246,16 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>1866134</v>
+        <v>1866199</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M160" t="inlineStr"/>
@@ -9291,35 +9291,31 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Wednesday, Jan 29 2025</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
+          <t>Tuesday, Jan 21 2025</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Club Bruges</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1866202</v>
+        <v>1866179</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M161" t="inlineStr"/>
@@ -9327,77 +9323,2013 @@
       <c r="O161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="A162" t="n">
+        <v>250</v>
+      </c>
+      <c r="B162" t="n">
+        <v>12</v>
+      </c>
+      <c r="C162" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D162" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Tuesday, Jan 21 2025</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>1866134</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>250</v>
+      </c>
+      <c r="B163" t="n">
+        <v>12</v>
+      </c>
+      <c r="C163" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D163" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>1866202</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>250</v>
+      </c>
+      <c r="B164" t="n">
+        <v>12</v>
+      </c>
+      <c r="C164" t="n">
+        <v>10456</v>
+      </c>
+      <c r="D164" t="n">
+        <v>23663</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Europe-Champions-League-2024-2025</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Wednesday, Jan 29 2025</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>1866151</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>250</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>10456</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>24083</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>europe-champions-league-2024-2025</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Tuesday, Mar 04 2025</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>1891165</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Tuesday, Mar 04 2025</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>1891167</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Wednesday, Mar 05 2025</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>1891168</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Wednesday, Mar 05 2025</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Paris Saint-Germain</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>1891169</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Wednesday, Mar 05 2025</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>1891170</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Wednesday, Mar 05 2025</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>1891166</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Tuesday, Mar 11 2025</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>1891174</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Tuesday, Mar 11 2025</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>1891178</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Tuesday, Mar 11 2025</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>1891176</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Tuesday, Mar 11 2025</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Paris Saint-Germain</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>1891177</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Wednesday, Mar 12 2025</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>1891172</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Wednesday, Mar 12 2025</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>1891173</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Wednesday, Mar 12 2025</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>1891175</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Tuesday, Mar 04 2025</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Club Bruges</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>1891163</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Tuesday, Mar 04 2025</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>1891164</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Wednesday, Feb 19 2025</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Paris Saint-Germain</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>1888124</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Wednesday, Feb 19 2025</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>1888122</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Wednesday, Feb 19 2025</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>AET</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>1888121</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Wednesday, Feb 19 2025</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>1888118</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
         <is>
           <t>Tuesday, Feb 18 2025</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>1888126</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Tuesday, Feb 18 2025</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>1888114</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Tuesday, Feb 18 2025</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Club Bruges</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>1888112</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Tuesday, Feb 18 2025</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
         <is>
           <t>AC Milan</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
+      <c r="I187" t="inlineStr">
         <is>
           <t>Feyenoord</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr">
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>1888120</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
+      <c r="N187" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="L162" t="inlineStr">
+      <c r="O187" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="M162" t="inlineStr">
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>europe-champions-league-2024-2025</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Wednesday, Mar 12 2025</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Club Bruges</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>1891171</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="N162" t="inlineStr">
+      <c r="N188" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O162" t="inlineStr">
+      <c r="O188" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
